--- a/UoM_MapReduce-vs-Spark/MapReduce/execution-times.xlsx
+++ b/UoM_MapReduce-vs-Spark/MapReduce/execution-times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msc\06.Semester-07\229412h-emr-lab\UoM_MapReduce-vs-Spark\MapReduce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CCD675-481F-4E6B-814B-A6FA10C62557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC80A161-14B8-4195-BF93-EB2DF2EB6CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C55F0A3-E3A0-46D8-B43C-CB936204491A}"/>
   </bookViews>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E33B63-574D-466E-BFD4-D14BDAC2922B}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
